--- a/outputs-r202/o__Campylobacterales.xlsx
+++ b/outputs-r202/o__Campylobacterales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +620,80 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG666.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04407003944158158</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04407003944158158</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04407003944158155</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2508093294931132</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04407003944158154</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04407003944158155</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04407003944158155</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04407003944158155</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.04407003944158155</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.04407003944158158</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.04407003944158159</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.04407003944158159</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.04407003944158159</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.04407003944158159</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.04407003944158159</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.04407003944158159</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.04407003944158159</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.04407003944158146</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2508093294931132</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>f__Helicobacteraceae</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>f__Helicobacteraceae(reject)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
